--- a/Documentazione/Sommario Modelli creati.xlsx
+++ b/Documentazione/Sommario Modelli creati.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domenicotrotta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domenicotrotta/Documents/GitHub/AgeReg/Documentazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8313EBC0-D884-044D-8496-D71B68213CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F2257-3BB1-F049-A4CF-7AF6AFB71E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22580" xr2:uid="{C436D3E0-1473-3141-9A3B-DB7DC356AD02}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$3:$Q$3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -765,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A7794-278E-2E4B-857E-48845D5EF64A}">
   <dimension ref="A2:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -782,6 +785,7 @@
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
     <col min="17" max="17" width="55.6640625" customWidth="1"/>
   </cols>
@@ -866,7 +870,7 @@
     </row>
     <row r="4" spans="1:17" ht="17" thickTop="1">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>81</v>
@@ -878,7 +882,7 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2">
         <v>15</v>
@@ -889,74 +893,72 @@
       <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>20</v>
       </c>
       <c r="L4" s="3">
-        <v>4198</v>
+        <v>4202</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="N4" s="3">
-        <v>6374</v>
+        <v>6534</v>
       </c>
       <c r="O4" s="3">
-        <v>5910</v>
+        <v>6052</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2">
         <v>15</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>20</v>
       </c>
       <c r="L5" s="3">
-        <v>4204</v>
+        <v>3900</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N5" s="3">
-        <v>6395</v>
+        <v>6440</v>
       </c>
       <c r="O5" s="3">
-        <v>5870</v>
+        <v>5986</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>81</v>
@@ -964,9 +966,7 @@
       <c r="C6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
         <v>81</v>
       </c>
@@ -987,24 +987,24 @@
         <v>20</v>
       </c>
       <c r="L6" s="3">
-        <v>3975</v>
+        <v>4204</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N6" s="3">
-        <v>6262</v>
+        <v>6395</v>
       </c>
       <c r="O6" s="3">
-        <v>5749</v>
+        <v>5870</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>81</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
         <v>15</v>
@@ -1031,24 +1031,24 @@
         <v>20</v>
       </c>
       <c r="L7" s="3">
-        <v>2988</v>
+        <v>4198</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N7" s="3">
-        <v>5913</v>
+        <v>6374</v>
       </c>
       <c r="O7" s="3">
-        <v>5648</v>
+        <v>5910</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>81</v>
@@ -1056,13 +1056,15 @@
       <c r="C8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="E8" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
         <v>15</v>
@@ -1077,34 +1079,30 @@
         <v>20</v>
       </c>
       <c r="L8" s="3">
-        <v>3263</v>
+        <v>3975</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N8" s="3">
-        <v>6103</v>
+        <v>6262</v>
       </c>
       <c r="O8" s="3">
-        <v>5814</v>
+        <v>5749</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
         <v>81</v>
       </c>
@@ -1118,46 +1116,46 @@
       <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1">
         <v>20</v>
       </c>
       <c r="L9" s="3">
-        <v>3124</v>
+        <v>3164</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N9" s="3">
-        <v>6072</v>
+        <v>6255</v>
       </c>
       <c r="O9" s="3">
-        <v>5770</v>
+        <v>5759</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="E10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="1">
         <v>80</v>
       </c>
       <c r="H10" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1165,26 +1163,23 @@
       <c r="J10" s="1">
         <v>10</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>20</v>
       </c>
       <c r="L10" s="3">
-        <v>3119</v>
+        <v>2852</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N10" s="3">
-        <v>6175</v>
+        <v>6220</v>
       </c>
       <c r="O10" s="3">
-        <v>5719</v>
+        <v>6165</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1233,17 +1228,17 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="G12" s="1">
         <v>80</v>
       </c>
@@ -1251,33 +1246,36 @@
         <v>15</v>
       </c>
       <c r="I12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1">
         <v>10</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>20</v>
       </c>
       <c r="L12" s="3">
-        <v>3107</v>
+        <v>3119</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N12" s="3">
-        <v>6047</v>
+        <v>6175</v>
       </c>
       <c r="O12" s="3">
-        <v>5964</v>
+        <v>5719</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>81</v>
@@ -1295,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
         <v>10</v>
@@ -1304,29 +1302,34 @@
         <v>20</v>
       </c>
       <c r="L13" s="3">
-        <v>3900</v>
+        <v>2939</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N13" s="3">
-        <v>6440</v>
+        <v>6155</v>
       </c>
       <c r="O13" s="3">
-        <v>5986</v>
+        <v>5681</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
         <v>81</v>
@@ -1344,28 +1347,28 @@
       <c r="J14" s="1">
         <v>10</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>20</v>
       </c>
       <c r="L14" s="3">
-        <v>4202</v>
+        <v>3263</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="N14" s="3">
-        <v>6534</v>
+        <v>6103</v>
       </c>
       <c r="O14" s="3">
-        <v>6052</v>
+        <v>5814</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>81</v>
@@ -1380,7 +1383,7 @@
         <v>80</v>
       </c>
       <c r="H15" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
@@ -1392,33 +1395,34 @@
         <v>20</v>
       </c>
       <c r="L15" s="3">
-        <v>2939</v>
+        <v>3005</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N15" s="3">
-        <v>6155</v>
+        <v>6073</v>
       </c>
       <c r="O15" s="3">
-        <v>5681</v>
+        <v>5892</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>81</v>
       </c>
@@ -1432,31 +1436,31 @@
       <c r="I16" s="1">
         <v>3</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
         <v>20</v>
       </c>
       <c r="L16" s="3">
-        <v>3164</v>
+        <v>3124</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N16" s="3">
-        <v>6255</v>
+        <v>6072</v>
       </c>
       <c r="O16" s="3">
-        <v>5759</v>
+        <v>5770</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>81</v>
@@ -1474,36 +1478,33 @@
         <v>15</v>
       </c>
       <c r="I17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1">
         <v>10</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3">
-        <v>2916</v>
+        <v>3107</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N17" s="3">
-        <v>5820</v>
+        <v>6047</v>
       </c>
       <c r="O17" s="3">
-        <v>5350</v>
+        <v>5964</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>81</v>
@@ -1518,7 +1519,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -1526,28 +1527,28 @@
       <c r="J18" s="1">
         <v>10</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>20</v>
       </c>
       <c r="L18" s="3">
-        <v>3005</v>
+        <v>2988</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="N18" s="3">
-        <v>6073</v>
+        <v>5913</v>
       </c>
       <c r="O18" s="3">
-        <v>5892</v>
+        <v>5648</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>81</v>
@@ -1562,7 +1563,7 @@
         <v>80</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
@@ -1571,34 +1572,35 @@
         <v>10</v>
       </c>
       <c r="K19" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>2852</v>
+        <v>2916</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N19" s="3">
-        <v>6220</v>
+        <v>5820</v>
       </c>
       <c r="O19" s="3">
-        <v>6165</v>
+        <v>5350</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
+      <c r="A20" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
@@ -1620,19 +1622,19 @@
         <v>20</v>
       </c>
       <c r="L20" s="3">
-        <v>1896</v>
+        <v>1954</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N20" s="3">
-        <v>5675</v>
+        <v>5685</v>
       </c>
       <c r="O20" s="3">
-        <v>5520</v>
+        <v>5567</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q20" t="s">
         <v>84</v>
@@ -1640,13 +1642,17 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
         <v>81</v>
@@ -1667,27 +1673,27 @@
         <v>20</v>
       </c>
       <c r="L21" s="3">
-        <v>1954</v>
+        <v>1901</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N21" s="3">
-        <v>5685</v>
+        <v>5683</v>
       </c>
       <c r="O21" s="3">
-        <v>5567</v>
+        <v>5646</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="7" t="s">
-        <v>42</v>
+      <c r="A22" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>81</v>
@@ -1695,9 +1701,7 @@
       <c r="C22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
         <v>81</v>
@@ -1718,19 +1722,19 @@
         <v>20</v>
       </c>
       <c r="L22" s="3">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N22" s="3">
-        <v>5683</v>
+        <v>5675</v>
       </c>
       <c r="O22" s="3">
-        <v>5646</v>
+        <v>5520</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="s">
         <v>84</v>
@@ -1828,6 +1832,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:Q3" xr:uid="{D3A21353-D7C0-224F-87F2-AE3D3E69326C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Q24">
+      <sortCondition descending="1" ref="N3:N24"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:K2"/>

--- a/Documentazione/Sommario Modelli creati.xlsx
+++ b/Documentazione/Sommario Modelli creati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domenicotrotta/Documents/GitHub/AgeReg/Documentazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F2257-3BB1-F049-A4CF-7AF6AFB71E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5339A49-166F-F648-8FB8-F4FEE3D96686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22580" xr2:uid="{C436D3E0-1473-3141-9A3B-DB7DC356AD02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{C436D3E0-1473-3141-9A3B-DB7DC356AD02}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
   <dimension ref="A2:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
